--- a/metadata/plate_metadata/20250520_well_metadata.xlsx
+++ b/metadata/plate_metadata/20250520_well_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/YX1_imaging_plates/yes-genotyped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E26254-56C4-214B-9C8F-546143D08E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CDFBD-A535-0F49-94A4-42C9D3B5D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="760" windowWidth="15960" windowHeight="18080" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="760" windowWidth="15960" windowHeight="18080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="medium" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>b9d2_unkown</t>
+    <t>b9d2_unknown</t>
   </si>
 </sst>
 </file>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4051,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D523B8-E03B-CC48-9ABD-CD89377B7D88}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
